--- a/biology/Zoologie/Bufonidae/Bufonidae.xlsx
+++ b/biology/Zoologie/Bufonidae/Bufonidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bufonidae sont une famille d'amphibiens créée en 1825 par John Edward Gray (1800-1875).
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces des 52 genres de cette famille se rencontrent sur tous les continents sauf dans les régions australiennes, malgaches et de l'océan Indien.
 Seules trois espèces sont présentes en France Bufo bufo, le Crapaud commun ; Epidalea calamita, le Crapaud calamite, présent en France sauf en Corse et Bufotes viridis, le Crapaud vert, présent en Corse et dans l'est de la France.
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille inclut les vrais crapauds du genre Bufo et des genres apparentés, qui sont des animaux terrestres en dehors de la saison de reproduction, actifs au crépuscule et la nuit, avec une pupille horizontale, un corps trapu, une peau verruqueuse et de grosses glandes parotoïdes derrière les yeux. Mais il existe aussi dans cette famille des anoures plus sveltes à peau lisse et des espèces arboricoles.
-Les caractères partagés par les espèces de cette famille sont[1] :
+Les caractères partagés par les espèces de cette famille sont :
 présence d'organe de Bidder : chez les Bufonidés mâles, il existe une structure interposée entre testicule et corps adipeux et interprétée comme un ovaire atrophique. Si les testicules sont chirurgicalement enlevés, l'organe de Bidder se développera et se différenciera en ovaire fonctionnel ;
 absence de dents ;
 absence du muscle postérieur constricteur ;
@@ -584,8 +600,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste des genres
-Selon Amphibian Species of the World                      (22 janvier 2016)[2] :
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (22 janvier 2016) :
 Adenomus Cope, 1861
 Altiphrynoides Dubois, 1987
 Amazophrynella Fouquet, Recoder, Teixeira, Cassimiro, Amaro, Camacho, Damasceno, Carnaval, Moritz &amp; Rodrigues, 2012
@@ -639,10 +660,7 @@
 Xanthophryne Biju, Van Bocxlaer, Giri, Loader &amp; Bossuyt, 2009
 Incertae Sedis :
 Bufo hadramautinus Cherchi, 1963
-Bufo scorteccii Balletto &amp; Cherchi, 1970
-Phylogénie
-La phylogénie suivante de la plupart des genres de la famille est basée sur Portik et Papenfuss, 2015[3], Chan et al., 2016[4], Chandramouli et al., 2016[5], et Kok et al., 2017[6]
-</t>
+Bufo scorteccii Balletto &amp; Cherchi, 1970</t>
         </is>
       </c>
     </row>
@@ -667,10 +685,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phylogénie suivante de la plupart des genres de la famille est basée sur Portik et Papenfuss, 2015, Chan et al., 2016, Chandramouli et al., 2016, et Kok et al., 2017
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bufonidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bufonidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gray, 1825 : A synopsis of the genera of reptiles and Amphibia, with a description of some new species. Annals of Philosophy, London, sér. 2, vol. 10, p. 193–217 (texte intégral).</t>
         </is>
